--- a/Excel/FrameworkConfig.xlsx
+++ b/Excel/FrameworkConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED50FF7A-056E-4C26-BFE6-48C8B463F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2505" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="2505" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FrameworkConfig.xlsx
+++ b/Excel/FrameworkConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798743D4-3593-4E53-84A1-A35508EED225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2505" windowWidth="21600" windowHeight="11400"/>
+    <workbookView xWindow="5895" yWindow="2715" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -60,13 +61,17 @@
   </si>
   <si>
     <t>默认回收AssetPool的毫秒数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认游戏帧率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -534,6 +539,17 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FrameworkConfig.xlsx
+++ b/Excel/FrameworkConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798743D4-3593-4E53-84A1-A35508EED225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD312345-56F5-4715-943F-236E0439B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="2715" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="4200" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="C2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>30000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">

--- a/Excel/FrameworkConfig.xlsx
+++ b/Excel/FrameworkConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD312345-56F5-4715-943F-236E0439B0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4200" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="4200" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -65,13 +64,17 @@
   </si>
   <si>
     <t>默认游戏帧率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据缓存服 unit数据缓存容量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -550,6 +553,17 @@
         <v>60</v>
       </c>
     </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FrameworkConfig.xlsx
+++ b/Excel/FrameworkConfig.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FrameworkConfig.xlsx
+++ b/Excel/FrameworkConfig.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
